--- a/prj_Apter_DownloadArquivos/resources/Data/Relatorio_Sintetico_prj_Apter_DownloadArquivos.xlsx
+++ b/prj_Apter_DownloadArquivos/resources/Data/Relatorio_Sintetico_prj_Apter_DownloadArquivos.xlsx
@@ -677,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1162"/>
+  <dimension ref="A1:J1218"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -45924,6 +45924,2190 @@
         </is>
       </c>
     </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>04/02/2024 16:40:24</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>04/02/2024 16:40:34</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1163" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>04/02/2024 17:00:23</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>04/02/2024 17:00:32</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1164" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>04/02/2024 17:20:23</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>04/02/2024 17:20:33</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1165" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>04/02/2024 17:40:24</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>04/02/2024 17:40:34</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1166" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>04/02/2024 18:00:22</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>04/02/2024 18:00:32</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1167" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>04/02/2024 18:20:20</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>04/02/2024 18:20:31</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1168" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>04/02/2024 18:40:22</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>04/02/2024 18:40:32</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1169" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>04/02/2024 19:00:22</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>04/02/2024 19:00:32</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1170" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>04/02/2024 19:20:21</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>04/02/2024 19:20:31</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1171" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>04/02/2024 19:40:24</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>04/02/2024 19:40:34</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1172" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>04/02/2024 20:00:20</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>04/02/2024 20:00:30</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1173" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>04/02/2024 20:20:24</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>04/02/2024 20:20:34</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1174" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>04/02/2024 20:40:22</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>04/02/2024 20:40:31</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1175" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>04/02/2024 21:00:22</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>04/02/2024 21:00:32</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1176" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>04/02/2024 21:20:21</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>04/02/2024 21:20:31</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1177" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>04/02/2024 21:40:23</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>04/02/2024 21:40:32</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1178" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>04/02/2024 22:00:22</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>04/02/2024 22:00:32</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1179" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>04/02/2024 22:20:22</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>04/02/2024 22:20:32</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1180" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>04/02/2024 22:40:22</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>04/02/2024 22:40:32</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1181" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>04/02/2024 23:00:24</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>04/02/2024 23:00:34</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1182" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>04/02/2024 23:20:22</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>04/02/2024 23:20:34</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>0:00:12</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1183" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>04/02/2024 23:40:23</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>04/02/2024 23:40:33</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1184" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>05/02/2024 00:00:24</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>05/02/2024 00:00:36</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>0:00:11</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1185" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>05/02/2024 00:20:23</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>05/02/2024 00:20:34</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1186" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>05/02/2024 00:40:22</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>05/02/2024 00:40:32</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1187" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>05/02/2024 01:00:21</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>05/02/2024 01:00:31</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1188" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>05/02/2024 01:20:19</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>05/02/2024 01:20:29</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>05/02/2024 01:40:21</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>05/02/2024 01:40:31</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1190" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>05/02/2024 02:00:21</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>05/02/2024 02:00:31</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1191" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>05/02/2024 02:20:21</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>05/02/2024 02:20:31</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1192" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>05/02/2024 02:40:21</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>05/02/2024 02:40:30</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>05/02/2024 03:00:24</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>05/02/2024 03:00:34</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1194" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>05/02/2024 03:20:22</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>05/02/2024 03:20:32</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>05/02/2024 03:40:22</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>05/02/2024 03:40:32</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>05/02/2024 04:00:23</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>05/02/2024 04:00:34</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>05/02/2024 04:20:22</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>05/02/2024 04:20:32</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>05/02/2024 04:40:22</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>05/02/2024 04:40:31</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>05/02/2024 05:00:22</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>05/02/2024 05:00:32</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>05/02/2024 05:20:22</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>05/02/2024 05:20:32</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>05/02/2024 05:40:23</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>05/02/2024 05:40:33</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>05/02/2024 06:00:22</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>05/02/2024 06:00:32</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>05/02/2024 06:20:22</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>05/02/2024 06:20:32</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>05/02/2024 06:40:23</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>05/02/2024 06:40:33</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>05/02/2024 07:00:23</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>05/02/2024 07:00:33</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>05/02/2024 07:20:23</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>05/02/2024 07:20:33</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>05/02/2024 07:40:29</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>05/02/2024 07:40:39</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>05/02/2024 08:00:23</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>05/02/2024 08:00:33</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>05/02/2024 08:20:21</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>05/02/2024 08:20:31</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>05/02/2024 08:40:31</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>05/02/2024 08:40:41</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>05/02/2024 09:00:23</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>05/02/2024 09:00:33</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>05/02/2024 09:20:22</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>05/02/2024 09:20:32</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>05/02/2024 09:40:30</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>05/02/2024 09:40:40</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>05/02/2024 10:00:23</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>05/02/2024 10:00:33</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>05/02/2024 10:20:23</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>05/02/2024 10:20:33</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>05/02/2024 10:40:22</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>05/02/2024 11:00:34</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>0:20:12</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>prj_Apter_DownloadArquivos</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>05/02/2024 11:00:59</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>05/02/2024 11:01:09</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>Runner_Prod</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
